--- a/intl_accounting_0724.xlsx
+++ b/intl_accounting_0724.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15940" windowHeight="11460"/>
+    <workbookView windowWidth="24160" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <t>Cumulative Abnormal Returns Around Earnings Announcement Dates</t>
   </si>
   <si>
-    <t>?</t>
+    <t>单独file</t>
   </si>
   <si>
     <t>We calculate cumulative abnormal stock return (Abr) around the latest quarterly earnings announcement date (Compustat quarterly item RDQ) (Chan, Jegadeesh, and Lakonishok 1996)): Abr_i = \sum_{d=-2}^{+1}r_{id}-r{md}, in which r id is stock i’s return on day d (with the earnings announced on day 0) and r md is the market index return. We cumulate returns until one (trading) day after the announcement date to account for the one-day-delayed reaction to earnings news. r md is the value-weighted market return for the Abr deciles with NYSE breakpoints and value-weighted returns, but is the equal-weighted market return with all-but-micro breakpoints and equal-weighted returns.</t>
@@ -136,9 +136,6 @@
     <t>Bid-ask spread rolling 3m</t>
   </si>
   <si>
-    <t>outside</t>
-  </si>
-  <si>
     <t>Monthly average of daily bid-ask spread divided by average of daily spread</t>
   </si>
   <si>
@@ -170,7 +167,7 @@
     <t>Industry-adjusted book to market</t>
   </si>
   <si>
-    <t>industry</t>
+    <t>functions import</t>
   </si>
   <si>
     <t>Industry adjusted book-to-market ratio</t>
@@ -309,7 +306,7 @@
     <t>Dollar trading volume</t>
   </si>
   <si>
-    <t>no vol</t>
+    <t>daily 算monthly</t>
   </si>
   <si>
     <t>Natural log of trading volume times price per share from month t-2</t>
@@ -319,9 +316,6 @@
   </si>
   <si>
     <t>Dividend to price</t>
-  </si>
-  <si>
-    <t>no retx(?</t>
   </si>
   <si>
     <t>Total dividends (dvt) divided by market capitalization at ﬁscal year-end</t>
@@ -394,6 +388,9 @@
     <t>Industry sales concentration</t>
   </si>
   <si>
+    <t>import function</t>
+  </si>
+  <si>
     <t>2-digit SIC - ﬁscal-year sales concentration (sum of squared percent of sales in industry for each company).</t>
   </si>
   <si>
@@ -403,7 +400,7 @@
     <t>Employee growth rate</t>
   </si>
   <si>
-    <t>no emp</t>
+    <t>做不了</t>
   </si>
   <si>
     <t>Percent change in number of employees (emp)</t>
@@ -456,6 +453,9 @@
   </si>
   <si>
     <t>Industry-adjusted size</t>
+  </si>
+  <si>
+    <t>accounting 60,import function</t>
   </si>
   <si>
     <t>2-digit SIC industry-adjusted ﬁscal year-end market capitalization</t>
@@ -873,23 +873,106 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -897,92 +980,37 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -990,14 +1018,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1005,33 +1026,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1040,187 +1040,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1234,11 +1240,74 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1260,69 +1329,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1336,152 +1342,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1491,60 +1497,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
+    <cellStyle name="Bad" xfId="22" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
+    <cellStyle name="Total" xfId="24" builtinId="25"/>
+    <cellStyle name="Output" xfId="25" builtinId="21"/>
+    <cellStyle name="Currency" xfId="26" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
+    <cellStyle name="Note" xfId="28" builtinId="10"/>
+    <cellStyle name="Input" xfId="29" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
+    <cellStyle name="Good" xfId="32" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="Title" xfId="38" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
+    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
+    <cellStyle name="Link" xfId="43" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
+    <cellStyle name="Comma" xfId="45" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1815,13 +1824,13 @@
   <sheetPr/>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.13970588235294" defaultRowHeight="14.8" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="58.0357142857143" customWidth="1"/>
+    <col min="3" max="3" width="58.0367647058824" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1858,7 +1867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="88" spans="1:6">
+    <row r="3" ht="60" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1895,14 +1904,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="53" spans="1:6">
+    <row r="5" ht="45" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D5">
@@ -1912,14 +1921,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="212" spans="1:6">
+    <row r="6" ht="119" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D6">
@@ -1929,14 +1938,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" ht="229" spans="1:6">
+    <row r="7" ht="163" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D7">
@@ -1957,398 +1966,398 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" ht="45" spans="1:6">
+      <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" ht="53" spans="1:6">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" t="s">
         <v>46</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1" t="s">
+    </row>
+    <row r="13" ht="60" spans="1:6">
+      <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" ht="71" spans="1:6">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1" t="s">
+    </row>
+    <row r="14" ht="45" spans="1:6">
+      <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" ht="53" spans="1:6">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="1" t="s">
+    </row>
+    <row r="16" ht="119" spans="1:6">
+      <c r="A16" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" ht="141" spans="1:6">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1" t="s">
+    </row>
+    <row r="17" ht="60" spans="1:6">
+      <c r="A17" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" ht="71" spans="1:6">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="18" ht="409.5" spans="1:6">
       <c r="A18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" t="s">
         <v>74</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
       <c r="E20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
       <c r="E21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" ht="45" spans="1:6">
+      <c r="A22" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="22" ht="53" spans="1:6">
-      <c r="A22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="3" t="s">
+    </row>
+    <row r="23" ht="89" spans="1:6">
+      <c r="A23" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="23" ht="124" spans="1:6">
-      <c r="A23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="24" ht="409.5" spans="1:6">
       <c r="A24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D25">
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="D27">
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" t="s">
         <v>107</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1" t="s">
+    </row>
+    <row r="29" ht="30" spans="1:6">
+      <c r="A29" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="29" ht="36" spans="1:6">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="D30">
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>119</v>
@@ -2439,14 +2448,14 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" ht="71" spans="1:6">
-      <c r="A37" s="1" t="s">
+    <row r="37" ht="60" spans="1:6">
+      <c r="A37" s="3" t="s">
         <v>140</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>142</v>
       </c>
       <c r="D37">
@@ -2466,7 +2475,7 @@
       <c r="B38" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>147</v>
       </c>
       <c r="D38">
@@ -2476,14 +2485,14 @@
         <v>148</v>
       </c>
     </row>
-    <row r="39" ht="176" spans="1:6">
+    <row r="39" ht="148" spans="1:6">
       <c r="A39" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>151</v>
       </c>
       <c r="D39">
@@ -2493,14 +2502,14 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" ht="229" spans="1:6">
+    <row r="40" ht="178" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>155</v>
       </c>
       <c r="D40">
@@ -2510,7 +2519,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="41" ht="53" spans="1:6">
+    <row r="41" ht="45" spans="1:6">
       <c r="A41" s="1" t="s">
         <v>157</v>
       </c>
@@ -2527,7 +2536,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="42" ht="36" spans="1:6">
+    <row r="42" ht="30" spans="1:6">
       <c r="A42" s="1" t="s">
         <v>161</v>
       </c>
@@ -2574,7 +2583,7 @@
       <c r="D44">
         <v>2</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="4" t="s">
         <v>172</v>
       </c>
       <c r="F44" s="1" t="s">
@@ -2591,7 +2600,7 @@
       <c r="D45">
         <v>2</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="4" t="s">
         <v>172</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -2615,14 +2624,14 @@
         <v>180</v>
       </c>
     </row>
-    <row r="47" ht="88" spans="1:6">
+    <row r="47" ht="60" spans="1:6">
       <c r="A47" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>183</v>
       </c>
       <c r="D47">
@@ -2632,14 +2641,14 @@
         <v>184</v>
       </c>
     </row>
-    <row r="48" ht="53" spans="1:6">
+    <row r="48" ht="45" spans="1:6">
       <c r="A48" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D48">
@@ -2649,14 +2658,14 @@
         <v>188</v>
       </c>
     </row>
-    <row r="49" ht="53" spans="1:6">
+    <row r="49" ht="45" spans="1:6">
       <c r="A49" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>191</v>
       </c>
       <c r="D49">
@@ -2666,14 +2675,14 @@
         <v>192</v>
       </c>
     </row>
-    <row r="50" ht="53" spans="1:6">
+    <row r="50" ht="45" spans="1:6">
       <c r="A50" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>195</v>
       </c>
       <c r="D50">
@@ -2694,7 +2703,7 @@
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>199</v>
@@ -2711,7 +2720,7 @@
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>202</v>
@@ -2728,20 +2737,20 @@
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="54" ht="36" spans="1:6">
+    <row r="54" ht="30" spans="1:6">
       <c r="A54" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>208</v>
       </c>
       <c r="D54">
@@ -2754,32 +2763,32 @@
         <v>210</v>
       </c>
     </row>
-    <row r="55" ht="106" spans="1:6">
+    <row r="55" ht="89" spans="1:6">
       <c r="A55" s="1" t="s">
         <v>211</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D55" s="3">
-        <v>0</v>
-      </c>
-      <c r="E55" s="3"/>
+      <c r="D55" s="2">
+        <v>0</v>
+      </c>
+      <c r="E55" s="2"/>
       <c r="F55" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="56" ht="36" spans="1:6">
+    <row r="56" ht="30" spans="1:6">
       <c r="A56" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>217</v>
       </c>
       <c r="D56">
@@ -2800,7 +2809,7 @@
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>221</v>
@@ -2817,7 +2826,7 @@
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>224</v>
@@ -2834,7 +2843,7 @@
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>227</v>
@@ -2851,7 +2860,7 @@
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>230</v>
@@ -2868,7 +2877,7 @@
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>233</v>
